--- a/Intensity Graph.xlsx
+++ b/Intensity Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackj\Git\AINT308-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519891B3-8171-4679-A442-FA63D34120D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83B3EA-11BC-4AC4-9300-166B6BA81AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Distance</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>3x3 Average</t>
+  </si>
+  <si>
+    <t>Disparit = BF/ Distance</t>
+  </si>
+  <si>
+    <t>Disparity * Distance = BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance = </t>
+  </si>
+  <si>
+    <t>Distance vs Disparity</t>
+  </si>
+  <si>
+    <t>BF =</t>
   </si>
 </sst>
 </file>
@@ -99,6 +114,1171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Distance vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Intensity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3x3 Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0261-420C-8988-96351D37D979}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="758594520"/>
+        <c:axId val="758593864"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Distance</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>Distance</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>150</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>150</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-0261-420C-8988-96351D37D979}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="758594520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758593864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="758593864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758594520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFC613C-AF0F-4BB4-BA3A-C26C0A4531A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44B266-DD7C-44DA-BA02-A32FD764BF2C}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,12 +1590,12 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -425,8 +1605,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>30</v>
       </c>
@@ -437,8 +1620,12 @@
         <f>D3/B3</f>
         <v>69.766666666666666</v>
       </c>
+      <c r="F3">
+        <f>B3*D3</f>
+        <v>62790</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>40</v>
       </c>
@@ -452,8 +1639,12 @@
         <f t="shared" ref="E4:E15" si="0">D4/B4</f>
         <v>39.125</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F15" si="1">B4*D4</f>
+        <v>62600</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>50</v>
       </c>
@@ -467,8 +1658,12 @@
         <f t="shared" si="0"/>
         <v>24.9</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>62250</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>60</v>
       </c>
@@ -482,8 +1677,12 @@
         <f t="shared" si="0"/>
         <v>17.333333333333332</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>62400</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>70</v>
       </c>
@@ -497,8 +1696,12 @@
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>62720</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>80</v>
       </c>
@@ -512,8 +1715,12 @@
         <f t="shared" si="0"/>
         <v>9.7874999999999996</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>62640</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>90</v>
       </c>
@@ -527,8 +1734,12 @@
         <f t="shared" si="0"/>
         <v>7.8111111111111109</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>63270</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>100</v>
       </c>
@@ -542,8 +1753,12 @@
         <f t="shared" si="0"/>
         <v>6.31</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>63100</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>110</v>
       </c>
@@ -557,8 +1772,12 @@
         <f t="shared" si="0"/>
         <v>5.2363636363636363</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>63360</v>
+      </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>120</v>
       </c>
@@ -572,8 +1791,12 @@
         <f t="shared" si="0"/>
         <v>4.2750000000000004</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>61560</v>
+      </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>130</v>
       </c>
@@ -587,8 +1810,12 @@
         <f t="shared" si="0"/>
         <v>3.6846153846153844</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>62270</v>
+      </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>140</v>
       </c>
@@ -602,8 +1829,12 @@
         <f t="shared" si="0"/>
         <v>3.0857142857142859</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>60480</v>
+      </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>150</v>
       </c>
@@ -617,8 +1848,37 @@
         <f t="shared" si="0"/>
         <v>2.76</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(F3:F15)</f>
+        <v>62426.153846153844</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Intensity Graph.xlsx
+++ b/Intensity Graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackj\Git\AINT308-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjpendlebury\Documents\GitHub\AINT308-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83B3EA-11BC-4AC4-9300-166B6BA81AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AF03E-82AA-4F2E-997D-69FE046E0F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Distance</t>
   </si>
@@ -55,13 +45,19 @@
     <t>Disparity * Distance = BF</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance = </t>
-  </si>
-  <si>
     <t>Distance vs Disparity</t>
   </si>
   <si>
     <t>BF =</t>
+  </si>
+  <si>
+    <t>Distance = BF / Disparity</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -97,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,16 +1241,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1578,24 +1575,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44B266-DD7C-44DA-BA02-A32FD764BF2C}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1606,10 +1606,16 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>30</v>
       </c>
@@ -1624,8 +1630,16 @@
         <f>B3*D3</f>
         <v>62790</v>
       </c>
+      <c r="G3">
+        <f>$F$16/D3</f>
+        <v>29.826160461611966</v>
+      </c>
+      <c r="H3" s="1">
+        <f>(1 - G3/B3)</f>
+        <v>5.794651279601104E-3</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>40</v>
       </c>
@@ -1643,8 +1657,16 @@
         <f t="shared" ref="F4:F15" si="1">B4*D4</f>
         <v>62600</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="2">$F$16/D4</f>
+        <v>39.888916195625463</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H15" si="3">(1 - G4/B4)</f>
+        <v>2.7770951093634144E-3</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>50</v>
       </c>
@@ -1662,8 +1684,16 @@
         <f t="shared" si="1"/>
         <v>62250</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>50.141489033055294</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.8297806611059517E-3</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>60</v>
       </c>
@@ -1681,8 +1711,16 @@
         <f t="shared" si="1"/>
         <v>62400</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>60.02514792899408</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.1913214990141334E-4</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>70</v>
       </c>
@@ -1700,8 +1738,16 @@
         <f t="shared" si="1"/>
         <v>62720</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>69.672046703296701</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6850470957614521E-3</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>80</v>
       </c>
@@ -1719,8 +1765,16 @@
         <f t="shared" si="1"/>
         <v>62640</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>79.726888692405936</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4138913449257569E-3</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>90</v>
       </c>
@@ -1738,8 +1792,16 @@
         <f t="shared" si="1"/>
         <v>63270</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>88.799649852281433</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3337223863539638E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>100</v>
       </c>
@@ -1757,8 +1819,16 @@
         <f t="shared" si="1"/>
         <v>63100</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>98.932098012922097</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0679019870779016E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>110</v>
       </c>
@@ -1776,8 +1846,16 @@
         <f t="shared" si="1"/>
         <v>63360</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>108.37873931623932</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4738733488733446E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>120</v>
       </c>
@@ -1795,8 +1873,16 @@
         <f t="shared" si="1"/>
         <v>61560</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>121.68840905683011</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4070075473584298E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>130</v>
       </c>
@@ -1814,8 +1900,16 @@
         <f t="shared" si="1"/>
         <v>62270</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>130.32599967881805</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.5076898370619549E-3</v>
+      </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>140</v>
       </c>
@@ -1833,8 +1927,16 @@
         <f t="shared" si="1"/>
         <v>60480</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>144.50498575498574</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.217846967846949E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>150</v>
       </c>
@@ -1852,10 +1954,18 @@
         <f t="shared" si="1"/>
         <v>62100</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>150.78781122259383</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.2520748172921738E-3</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <f>AVERAGE(F3:F15)</f>
@@ -1874,11 +1984,12 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Intensity Graph.xlsx
+++ b/Intensity Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjpendlebury\Documents\GitHub\AINT308-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackj\Git\AINT308-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61AF03E-82AA-4F2E-997D-69FE046E0F65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3122DD0-B5A8-4620-A19D-BF74C165D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
+    <workbookView xWindow="-28920" yWindow="1905" windowWidth="29040" windowHeight="15720" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Distance</t>
   </si>
@@ -58,6 +68,27 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Program Result</t>
+  </si>
+  <si>
+    <t>Program Error</t>
+  </si>
+  <si>
+    <t>Max Error</t>
+  </si>
+  <si>
+    <t>Min Error</t>
+  </si>
+  <si>
+    <t>Exection Results</t>
+  </si>
+  <si>
+    <t>Image #</t>
+  </si>
+  <si>
+    <t>Distance Value</t>
   </si>
 </sst>
 </file>
@@ -134,12 +165,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -148,13 +176,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Distance vs.</a:t>
+              <a:t>Distance vs. Intensity</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Intensity</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -171,12 +194,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -208,13 +228,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -332,6 +356,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="758594520"/>
         <c:axId val="758593864"/>
@@ -359,13 +404,17 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
+                  <a:ln w="34925" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
@@ -504,12 +553,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="lt1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -520,12 +566,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -549,20 +592,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -581,10 +610,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -607,7 +633,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -623,10 +649,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -650,14 +673,357 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Program Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.2200000000000033E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1325000000000935E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4699999999999722E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.166666666667318E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8114285714285776E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8399999999999546E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3651111111111058E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1551999999999896E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4745454545454506E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2966666666666571E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3461538461538858E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.111428571428565E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9799999999999844E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-66EB-42B7-8E41-90656A96ACF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="870816296"/>
+        <c:axId val="870818920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="870816296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870818920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="870818920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="870816296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -721,60 +1087,94 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -786,22 +1186,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -809,10 +1205,7 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -823,71 +1216,87 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -896,10 +1305,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -911,31 +1320,30 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -944,15 +1352,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -963,37 +1371,51 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -1001,28 +1423,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1030,59 +1447,62 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1091,57 +1511,67 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1150,28 +1580,25 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1180,15 +1607,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1196,13 +1622,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1213,10 +1641,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1225,14 +1650,537 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1241,16 +2189,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1270,6 +2218,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C790A59-7A2E-4A7B-8D68-61AB967C836A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1575,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44B266-DD7C-44DA-BA02-A32FD764BF2C}">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,14 +2572,16 @@
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +2600,14 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>30</v>
       </c>
@@ -1638,8 +2630,15 @@
         <f>(1 - G3/B3)</f>
         <v>5.794651279601104E-3</v>
       </c>
+      <c r="I3">
+        <v>29.813400000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(1-I3/B3)</f>
+        <v>6.2200000000000033E-3</v>
+      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>40</v>
       </c>
@@ -1665,8 +2664,15 @@
         <f t="shared" ref="H4:H15" si="3">(1 - G4/B4)</f>
         <v>2.7770951093634144E-3</v>
       </c>
+      <c r="I4">
+        <v>39.874699999999997</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J15" si="4">(1-I4/B4)</f>
+        <v>3.1325000000000935E-3</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>50</v>
       </c>
@@ -1692,8 +2698,15 @@
         <f t="shared" si="3"/>
         <v>-2.8297806611059517E-3</v>
       </c>
+      <c r="I5">
+        <v>50.1235</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.4699999999999722E-3</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>60</v>
       </c>
@@ -1719,8 +2732,15 @@
         <f t="shared" si="3"/>
         <v>-4.1913214990141334E-4</v>
       </c>
+      <c r="I6">
+        <v>60.024999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.166666666667318E-4</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>70</v>
       </c>
@@ -1746,8 +2766,15 @@
         <f t="shared" si="3"/>
         <v>4.6850470957614521E-3</v>
       </c>
+      <c r="I7">
+        <v>69.663200000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8114285714285776E-3</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>80</v>
       </c>
@@ -1773,8 +2800,15 @@
         <f t="shared" si="3"/>
         <v>3.4138913449257569E-3</v>
       </c>
+      <c r="I8">
+        <v>79.692800000000005</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8399999999999546E-3</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>90</v>
       </c>
@@ -1800,8 +2834,15 @@
         <f t="shared" si="3"/>
         <v>1.3337223863539638E-2</v>
       </c>
+      <c r="I9">
+        <v>88.7714</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3651111111111058E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>100</v>
       </c>
@@ -1827,8 +2868,15 @@
         <f t="shared" si="3"/>
         <v>1.0679019870779016E-2</v>
       </c>
+      <c r="I10">
+        <v>98.844800000000006</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1551999999999896E-2</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>110</v>
       </c>
@@ -1854,8 +2902,15 @@
         <f t="shared" si="3"/>
         <v>1.4738733488733446E-2</v>
       </c>
+      <c r="I11">
+        <v>108.378</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4745454545454506E-2</v>
+      </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>120</v>
       </c>
@@ -1881,8 +2936,15 @@
         <f t="shared" si="3"/>
         <v>-1.4070075473584298E-2</v>
       </c>
+      <c r="I12">
+        <v>121.556</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2966666666666571E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>130</v>
       </c>
@@ -1908,8 +2970,15 @@
         <f t="shared" si="3"/>
         <v>-2.5076898370619549E-3</v>
       </c>
+      <c r="I13">
+        <v>130.17500000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.3461538461538858E-3</v>
+      </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>140</v>
       </c>
@@ -1935,8 +3004,15 @@
         <f t="shared" si="3"/>
         <v>-3.217846967846949E-2</v>
       </c>
+      <c r="I14">
+        <v>144.35599999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.111428571428565E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>150</v>
       </c>
@@ -1962,8 +3038,15 @@
         <f t="shared" si="3"/>
         <v>-5.2520748172921738E-3</v>
       </c>
+      <c r="I15">
+        <v>150.74700000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.9799999999999844E-3</v>
+      </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -1972,19 +3055,110 @@
         <v>62426.153846153844</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="array" ref="J19">MAX(ABS(J3:J15))</f>
+        <v>3.111428571428565E-2</v>
+      </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="array" ref="J20">MIN(ABS(J3:J15))</f>
+        <v>4.166666666667318E-4</v>
+      </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>105.193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>59.152900000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>114.754</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>151.84700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>49.4572</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>134.86199999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>28.924700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>83.345799999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Intensity Graph.xlsx
+++ b/Intensity Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackj\Git\AINT308-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3122DD0-B5A8-4620-A19D-BF74C165D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8A8179-853C-466F-986E-3F111C00AA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1905" windowWidth="29040" windowHeight="15720" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>Min Error</t>
   </si>
   <si>
-    <t>Exection Results</t>
-  </si>
-  <si>
     <t>Image #</t>
   </si>
   <si>
     <t>Distance Value</t>
+  </si>
+  <si>
+    <t>Execution Results</t>
   </si>
 </sst>
 </file>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE44B266-DD7C-44DA-BA02-A32FD764BF2C}">
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,15 +3086,15 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">

--- a/Intensity Graph.xlsx
+++ b/Intensity Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackj\Git\AINT308-Coursework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\AINT308-Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8A8179-853C-466F-986E-3F111C00AA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D80FF8-7426-4F51-94E3-7D55B217FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1905" windowWidth="29040" windowHeight="15720" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1954A897-CB5B-4D6F-A456-9E9A2C8C91C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2562,7 +2562,7 @@
   <dimension ref="B1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I2" activeCellId="1" sqref="B2:B15 I2:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,6 +2611,9 @@
       <c r="B3">
         <v>30</v>
       </c>
+      <c r="C3">
+        <v>2094</v>
+      </c>
       <c r="D3">
         <v>2093</v>
       </c>
